--- a/WHO-DATA-SETS/ExcelDataSets/20200124-sitrep-4-2019-ncov.xlsx
+++ b/WHO-DATA-SETS/ExcelDataSets/20200124-sitrep-4-2019-ncov.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunsl_000\Desktop\COVID-19 By Country\COVID-19-By-Country\WHO-DATA-SETS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunsl_000\Desktop\COVID-19 By Country\COVID-19-By-Country\WHO-DATA-SETS\ExcelDataSets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3E4346-EF87-4138-BCA2-A2EBCF5BD7E8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF24E33-A973-4326-BBE9-C93B25D10323}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
   <si>
     <r>
       <rPr>
@@ -482,7 +482,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -593,11 +593,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -715,8 +730,47 @@
     <xf numFmtId="1" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="3" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="3" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="3" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -733,8 +787,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -759,8 +816,8 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>635507</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1829435" cy="9525"/>
     <xdr:sp macro="" textlink="">
@@ -1137,10 +1194,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1152,324 +1209,582 @@
     <col min="5" max="5" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="150" customHeight="1">
-      <c r="A1" s="39"/>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-    </row>
-    <row r="2" spans="1:5" ht="33.6" customHeight="1">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:5" ht="33.6" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="2" t="s">
+      <c r="C1" s="54"/>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" ht="22.7" customHeight="1">
+      <c r="A2" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="22.7" customHeight="1">
-      <c r="A3" s="42" t="s">
+    <row r="3" spans="1:5" ht="17.850000000000001" customHeight="1">
+      <c r="A3" s="56"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="8">
+        <v>384</v>
+      </c>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:5" ht="18" customHeight="1">
+      <c r="A4" s="56"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="12">
+        <v>375</v>
+      </c>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5" ht="18" customHeight="1">
+      <c r="A5" s="56"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="15">
+        <v>32</v>
+      </c>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:5" ht="18" customHeight="1">
+      <c r="A6" s="56"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="18">
+        <v>10</v>
+      </c>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5" ht="18" customHeight="1">
+      <c r="A7" s="56"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="19">
+        <v>9</v>
+      </c>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:5" ht="18" customHeight="1">
+      <c r="A8" s="56"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="20">
+        <v>5</v>
+      </c>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:5" ht="18" customHeight="1">
+      <c r="A9" s="56"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="19">
+        <v>5</v>
+      </c>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:5" ht="18" customHeight="1">
+      <c r="A10" s="56"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="20">
+        <v>2</v>
+      </c>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:5" ht="18" customHeight="1">
+      <c r="A11" s="56"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="19">
+        <v>2</v>
+      </c>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:5" ht="18" customHeight="1">
+      <c r="A12" s="56"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="20">
+        <v>2</v>
+      </c>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:5" ht="18" customHeight="1">
+      <c r="A13" s="56"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="19">
+        <v>1</v>
+      </c>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:5" ht="18" customHeight="1">
+      <c r="A14" s="56"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="20">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:5" ht="18" customHeight="1">
+      <c r="A15" s="56"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="19">
+        <v>1</v>
+      </c>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" ht="18" customHeight="1">
+      <c r="A16" s="56"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="20">
+        <v>1</v>
+      </c>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" ht="17.850000000000001" customHeight="1">
+      <c r="A17" s="56"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="23">
+        <v>1</v>
+      </c>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" ht="33.200000000000003" customHeight="1">
+      <c r="A18" s="56"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="26">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="A19" s="56"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="29">
+        <v>2</v>
+      </c>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:5" ht="18" customHeight="1">
+      <c r="A20" s="56"/>
+      <c r="B20" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:5" ht="17.45" customHeight="1">
+      <c r="A21" s="56"/>
+      <c r="B21" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="23">
+        <v>2</v>
+      </c>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:5" ht="18" customHeight="1">
+      <c r="A22" s="56"/>
+      <c r="B22" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="31"/>
+      <c r="D22" s="26">
+        <v>2</v>
+      </c>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="1:5" ht="18.2" customHeight="1">
+      <c r="A23" s="57"/>
+      <c r="B23" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="27"/>
+      <c r="D23" s="29">
+        <v>1</v>
+      </c>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="1:5" ht="17.850000000000001" customHeight="1">
+      <c r="A24" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="33">
+        <v>4</v>
+      </c>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="1:5" ht="18" customHeight="1">
+      <c r="A25" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="36"/>
+      <c r="D25" s="37">
+        <v>1</v>
+      </c>
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="1:5" ht="17.850000000000001" customHeight="1">
+      <c r="A26" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="36"/>
+      <c r="D26" s="38">
+        <v>846</v>
+      </c>
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="1:5" ht="30">
+      <c r="A27" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="58"/>
+      <c r="D27" s="40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15">
+      <c r="A28" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B28" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C28" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D28" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" ht="17.850000000000001" customHeight="1">
-      <c r="A4" s="43"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
+    </row>
+    <row r="29" spans="1:5" ht="17.25">
+      <c r="A29" s="59"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D29" s="45">
         <v>384</v>
       </c>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:5" ht="18" customHeight="1">
-      <c r="A5" s="43"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11" t="s">
+    </row>
+    <row r="30" spans="1:5" ht="15">
+      <c r="A30" s="59"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D30" s="45">
         <v>375</v>
       </c>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1">
-      <c r="A6" s="43"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14" t="s">
+    </row>
+    <row r="31" spans="1:5" ht="15">
+      <c r="A31" s="59"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D31" s="48">
         <v>32</v>
       </c>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1">
-      <c r="A7" s="43"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="17" t="s">
+    </row>
+    <row r="32" spans="1:5" ht="15">
+      <c r="A32" s="59"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D32" s="45">
         <v>10</v>
       </c>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" ht="18" customHeight="1">
-      <c r="A8" s="43"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14" t="s">
+    </row>
+    <row r="33" spans="1:4" ht="15">
+      <c r="A33" s="59"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D33" s="49">
         <v>9</v>
       </c>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:5" ht="18" customHeight="1">
-      <c r="A9" s="43"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17" t="s">
+    </row>
+    <row r="34" spans="1:4" ht="15">
+      <c r="A34" s="59"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D34" s="50">
         <v>5</v>
       </c>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1">
-      <c r="A10" s="43"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14" t="s">
+    </row>
+    <row r="35" spans="1:4" ht="15">
+      <c r="A35" s="59"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D35" s="49">
         <v>5</v>
       </c>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" ht="18" customHeight="1">
-      <c r="A11" s="43"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17" t="s">
+    </row>
+    <row r="36" spans="1:4" ht="15">
+      <c r="A36" s="59"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D36" s="50">
         <v>2</v>
       </c>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="1:5" ht="18" customHeight="1">
-      <c r="A12" s="43"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14" t="s">
+    </row>
+    <row r="37" spans="1:4" ht="15">
+      <c r="A37" s="59"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D37" s="49">
         <v>2</v>
       </c>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:5" ht="18" customHeight="1">
-      <c r="A13" s="43"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17" t="s">
+    </row>
+    <row r="38" spans="1:4" ht="15">
+      <c r="A38" s="59"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D38" s="50">
         <v>2</v>
       </c>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:5" ht="18" customHeight="1">
-      <c r="A14" s="43"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="14" t="s">
+    </row>
+    <row r="39" spans="1:4" ht="15">
+      <c r="A39" s="59"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D39" s="49">
         <v>1</v>
       </c>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:5" ht="18" customHeight="1">
-      <c r="A15" s="43"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="17" t="s">
+    </row>
+    <row r="40" spans="1:4" ht="15">
+      <c r="A40" s="59"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D40" s="50">
         <v>1</v>
       </c>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:5" ht="18" customHeight="1">
-      <c r="A16" s="43"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="14" t="s">
+    </row>
+    <row r="41" spans="1:4" ht="15">
+      <c r="A41" s="59"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D41" s="49">
         <v>1</v>
       </c>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:5" ht="18" customHeight="1">
-      <c r="A17" s="43"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17" t="s">
+    </row>
+    <row r="42" spans="1:4" ht="15">
+      <c r="A42" s="59"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D42" s="50">
         <v>1</v>
       </c>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:5" ht="17.850000000000001" customHeight="1">
-      <c r="A18" s="43"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="22" t="s">
+    </row>
+    <row r="43" spans="1:4" ht="15">
+      <c r="A43" s="59"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D43" s="49">
         <v>1</v>
       </c>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="1:5" ht="33.200000000000003" customHeight="1">
-      <c r="A19" s="43"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25" t="s">
+    </row>
+    <row r="44" spans="1:4" ht="30">
+      <c r="A44" s="59"/>
+      <c r="B44" s="51"/>
+      <c r="C44" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D44" s="49">
         <v>2</v>
       </c>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" ht="18.600000000000001" customHeight="1">
-      <c r="A20" s="43"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="28" t="s">
+    </row>
+    <row r="45" spans="1:4" ht="30">
+      <c r="A45" s="59"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="29">
+      <c r="D45" s="49">
         <v>2</v>
       </c>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="1:5" ht="18" customHeight="1">
-      <c r="A21" s="43"/>
-      <c r="B21" s="17" t="s">
+    </row>
+    <row r="46" spans="1:4" ht="15">
+      <c r="A46" s="59"/>
+      <c r="B46" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="20">
+      <c r="C46" s="43"/>
+      <c r="D46" s="50">
         <v>1</v>
       </c>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="1:5" ht="17.45" customHeight="1">
-      <c r="A22" s="43"/>
-      <c r="B22" s="22" t="s">
+    </row>
+    <row r="47" spans="1:4" ht="15">
+      <c r="A47" s="59"/>
+      <c r="B47" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="23">
+      <c r="C47" s="46"/>
+      <c r="D47" s="49">
         <v>2</v>
       </c>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="1:5" ht="18" customHeight="1">
-      <c r="A23" s="43"/>
-      <c r="B23" s="30" t="s">
+    </row>
+    <row r="48" spans="1:4" ht="15">
+      <c r="A48" s="59"/>
+      <c r="B48" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="26">
+      <c r="C48" s="46"/>
+      <c r="D48" s="49">
         <v>2</v>
       </c>
-      <c r="E23" s="9"/>
-    </row>
-    <row r="24" spans="1:5" ht="18.2" customHeight="1">
-      <c r="A24" s="44"/>
-      <c r="B24" s="28" t="s">
+    </row>
+    <row r="49" spans="1:4" ht="15">
+      <c r="A49" s="59"/>
+      <c r="B49" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="29">
+      <c r="C49" s="46"/>
+      <c r="D49" s="49">
         <v>1</v>
       </c>
-      <c r="E24" s="9"/>
-    </row>
-    <row r="25" spans="1:5" ht="17.850000000000001" customHeight="1">
-      <c r="A25" s="32" t="s">
+    </row>
+    <row r="50" spans="1:4" ht="15">
+      <c r="A50" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B50" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="33">
+      <c r="C50" s="43"/>
+      <c r="D50" s="50">
         <v>4</v>
       </c>
-      <c r="E25" s="9"/>
-    </row>
-    <row r="26" spans="1:5" ht="18" customHeight="1">
-      <c r="A26" s="34" t="s">
+    </row>
+    <row r="51" spans="1:4" ht="15">
+      <c r="A51" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="35" t="s">
+      <c r="B51" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="36"/>
-      <c r="D26" s="37">
+      <c r="C51" s="43"/>
+      <c r="D51" s="50">
         <v>1</v>
       </c>
-      <c r="E26" s="9"/>
-    </row>
-    <row r="27" spans="1:5" ht="17.850000000000001" customHeight="1">
-      <c r="A27" s="34" t="s">
+    </row>
+    <row r="52" spans="1:4" ht="15">
+      <c r="A52" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B52" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="38">
+      <c r="C52" s="43"/>
+      <c r="D52" s="45">
         <v>846</v>
       </c>
-      <c r="E27" s="9"/>
-    </row>
-    <row r="28" spans="1:5" ht="95.25" customHeight="1">
-      <c r="A28" s="45"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A3:A24"/>
-    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A28:A49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/WHO-DATA-SETS/ExcelDataSets/20200124-sitrep-4-2019-ncov.xlsx
+++ b/WHO-DATA-SETS/ExcelDataSets/20200124-sitrep-4-2019-ncov.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunsl_000\Desktop\COVID-19 By Country\COVID-19-By-Country\WHO-DATA-SETS\ExcelDataSets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF24E33-A973-4326-BBE9-C93B25D10323}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8F5156-1AE9-4B00-9B3F-F01F901F35EB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <r>
       <rPr>
@@ -412,7 +412,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -423,10 +423,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -435,18 +437,7 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <vertAlign val="superscript"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -482,7 +473,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -593,53 +584,26 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="3" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -649,149 +613,101 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="3" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="3" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="3" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="1" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="3" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="3" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="3" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1194,13 +1110,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" customWidth="1"/>
@@ -1209,582 +1125,308 @@
     <col min="5" max="5" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.6" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="37"/>
+      <c r="D1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" ht="22.7" customHeight="1">
-      <c r="A2" s="55" t="s">
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" ht="17.850000000000001" customHeight="1">
-      <c r="A3" s="56"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="39"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="27">
         <v>384</v>
       </c>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" ht="18" customHeight="1">
-      <c r="A4" s="56"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11" t="s">
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="39"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="28">
         <v>375</v>
       </c>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:5" ht="18" customHeight="1">
-      <c r="A5" s="56"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="14" t="s">
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="39"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="29">
         <v>32</v>
       </c>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1">
-      <c r="A6" s="56"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17" t="s">
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="39"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="30">
         <v>10</v>
       </c>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1">
-      <c r="A7" s="56"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14" t="s">
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="39"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="29">
         <v>9</v>
       </c>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" ht="18" customHeight="1">
-      <c r="A8" s="56"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="17" t="s">
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="39"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="30">
         <v>5</v>
       </c>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:5" ht="18" customHeight="1">
-      <c r="A9" s="56"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14" t="s">
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="39"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="29">
         <v>5</v>
       </c>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1">
-      <c r="A10" s="56"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="17" t="s">
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="39"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="30">
         <v>2</v>
       </c>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" ht="18" customHeight="1">
-      <c r="A11" s="56"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14" t="s">
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="39"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="29">
         <v>2</v>
       </c>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="1:5" ht="18" customHeight="1">
-      <c r="A12" s="56"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17" t="s">
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="39"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="30">
         <v>2</v>
       </c>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:5" ht="18" customHeight="1">
-      <c r="A13" s="56"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="14" t="s">
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="39"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="29">
         <v>1</v>
       </c>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:5" ht="18" customHeight="1">
-      <c r="A14" s="56"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="17" t="s">
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="39"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="30">
         <v>1</v>
       </c>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:5" ht="18" customHeight="1">
-      <c r="A15" s="56"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="14" t="s">
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="39"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="29">
         <v>1</v>
       </c>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:5" ht="18" customHeight="1">
-      <c r="A16" s="56"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="17" t="s">
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="39"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="30">
         <v>1</v>
       </c>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:5" ht="17.850000000000001" customHeight="1">
-      <c r="A17" s="56"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="22" t="s">
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="39"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="31">
         <v>1</v>
       </c>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:5" ht="33.200000000000003" customHeight="1">
-      <c r="A18" s="56"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="25" t="s">
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" ht="33.200000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="39"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="32">
         <v>2</v>
       </c>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" ht="18.600000000000001" customHeight="1">
-      <c r="A19" s="56"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="28" t="s">
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="39"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="29">
+      <c r="D19" s="33">
         <v>2</v>
       </c>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="1:5" ht="18" customHeight="1">
-      <c r="A20" s="56"/>
-      <c r="B20" s="17" t="s">
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="39"/>
+      <c r="B20" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="20">
+      <c r="C20" s="10"/>
+      <c r="D20" s="30">
         <v>1</v>
       </c>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="1:5" ht="17.45" customHeight="1">
-      <c r="A21" s="56"/>
-      <c r="B21" s="22" t="s">
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="39"/>
+      <c r="B21" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="23">
+      <c r="C21" s="12"/>
+      <c r="D21" s="31">
         <v>2</v>
       </c>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="1:5" ht="18" customHeight="1">
-      <c r="A22" s="56"/>
-      <c r="B22" s="30" t="s">
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="39"/>
+      <c r="B22" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="26">
+      <c r="C22" s="19"/>
+      <c r="D22" s="32">
         <v>2</v>
       </c>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="1:5" ht="18.2" customHeight="1">
-      <c r="A23" s="57"/>
-      <c r="B23" s="28" t="s">
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="37"/>
+      <c r="B23" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="29">
+      <c r="C23" s="16"/>
+      <c r="D23" s="33">
         <v>1</v>
       </c>
-      <c r="E23" s="9"/>
-    </row>
-    <row r="24" spans="1:5" ht="17.850000000000001" customHeight="1">
-      <c r="A24" s="32" t="s">
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:5" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="33">
+      <c r="C24" s="3"/>
+      <c r="D24" s="27">
         <v>4</v>
       </c>
-      <c r="E24" s="9"/>
-    </row>
-    <row r="25" spans="1:5" ht="18" customHeight="1">
-      <c r="A25" s="34" t="s">
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="37">
+      <c r="C25" s="21"/>
+      <c r="D25" s="34">
         <v>1</v>
       </c>
-      <c r="E25" s="9"/>
-    </row>
-    <row r="26" spans="1:5" ht="17.850000000000001" customHeight="1">
-      <c r="A26" s="34" t="s">
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:5" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="25" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="36"/>
-      <c r="D26" s="38">
+      <c r="C26" s="21"/>
+      <c r="D26" s="34">
         <v>846</v>
       </c>
-      <c r="E26" s="9"/>
-    </row>
-    <row r="27" spans="1:5" ht="30">
-      <c r="A27" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="58"/>
-      <c r="D27" s="40" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15">
-      <c r="A28" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="42" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="17.25">
-      <c r="A29" s="59"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="45">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15">
-      <c r="A30" s="59"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="45">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15">
-      <c r="A31" s="59"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="48">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15">
-      <c r="A32" s="59"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="45">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15">
-      <c r="A33" s="59"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="49">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15">
-      <c r="A34" s="59"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="50">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15">
-      <c r="A35" s="59"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="49">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15">
-      <c r="A36" s="59"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15">
-      <c r="A37" s="59"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15">
-      <c r="A38" s="59"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D38" s="50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15">
-      <c r="A39" s="59"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15">
-      <c r="A40" s="59"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15">
-      <c r="A41" s="59"/>
-      <c r="B41" s="46"/>
-      <c r="C41" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15">
-      <c r="A42" s="59"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="D42" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15">
-      <c r="A43" s="59"/>
-      <c r="B43" s="46"/>
-      <c r="C43" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="D43" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="30">
-      <c r="A44" s="59"/>
-      <c r="B44" s="51"/>
-      <c r="C44" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="D44" s="49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="30">
-      <c r="A45" s="59"/>
-      <c r="B45" s="46"/>
-      <c r="C45" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="D45" s="49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15">
-      <c r="A46" s="59"/>
-      <c r="B46" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="C46" s="43"/>
-      <c r="D46" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15">
-      <c r="A47" s="59"/>
-      <c r="B47" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="C47" s="46"/>
-      <c r="D47" s="49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15">
-      <c r="A48" s="59"/>
-      <c r="B48" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="C48" s="46"/>
-      <c r="D48" s="49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15">
-      <c r="A49" s="59"/>
-      <c r="B49" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C49" s="46"/>
-      <c r="D49" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15">
-      <c r="A50" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="B50" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="C50" s="43"/>
-      <c r="D50" s="50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15">
-      <c r="A51" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="B51" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="C51" s="43"/>
-      <c r="D51" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15">
-      <c r="A52" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="B52" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="C52" s="43"/>
-      <c r="D52" s="45">
-        <v>846</v>
-      </c>
+      <c r="E26" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="2">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="A2:A23"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A28:A49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
